--- a/SolarSystem_Batterylife_calc.xlsx
+++ b/SolarSystem_Batterylife_calc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Gosselin\Desktop\MDA\MDA\FISH_BOWL\FISH_BOWL_V1\power_budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AD20B7-B51F-4FB8-A067-8D6DC96B5CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2998BF34-410D-4259-830D-3465D32770D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DBCC6AD-7DF6-405E-BC9C-23DF9360F44B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
   <si>
     <t>Power_budget_v1</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Battery capacity in Wh</t>
+  </si>
+  <si>
+    <t>Discharge time</t>
+  </si>
+  <si>
+    <t>battery cap</t>
   </si>
 </sst>
 </file>
@@ -235,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +269,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -449,6 +461,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3639,8 +3660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5769DF21-2449-4D5A-9C1E-229184D3705F}">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3668,7 +3689,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -3681,7 +3702,7 @@
       </c>
       <c r="F4">
         <f>B4/D4</f>
-        <v>1.6666666666666667</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -3692,7 +3713,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -3705,7 +3726,7 @@
       </c>
       <c r="F5">
         <f>B5/D5</f>
-        <v>2.5</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
@@ -4048,8 +4069,31 @@
         <v>4</v>
       </c>
     </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <f>D50-AA50</f>
+        <v>271.09999999999945</v>
+      </c>
+      <c r="J37">
+        <f>D50</f>
+        <v>2880</v>
+      </c>
+      <c r="K37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I38">
+        <f>4*24</f>
+        <v>96</v>
+      </c>
+    </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="H39" s="21"/>
+      <c r="H39" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B40">
@@ -4061,11 +4105,28 @@
       <c r="D40" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="H40" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="41">
+        <f>I38*J37/I37</f>
+        <v>1019.8450756178553</v>
+      </c>
+      <c r="J40" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H41" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="44">
+        <f>I40/24</f>
+        <v>42.493544817410637</v>
+      </c>
+      <c r="J41" s="45" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="H42" s="22"/>
@@ -4427,7 +4488,7 @@
         <v>2646.4533333333338</v>
       </c>
       <c r="X50" s="30">
-        <f t="shared" ref="X50:Z50" si="3">W50+($B$32-$B$9)</f>
+        <f t="shared" ref="X50:Y50" si="3">W50+($B$32-$B$9)</f>
         <v>2678.731666666667</v>
       </c>
       <c r="Y50" s="30">
@@ -5339,7 +5400,7 @@
         <v>2806.4533333333338</v>
       </c>
       <c r="X50" s="30">
-        <f t="shared" ref="X50:Z50" si="2">W50+($B$32-$B$9)</f>
+        <f t="shared" ref="X50:Y50" si="2">W50+($B$32-$B$9)</f>
         <v>2848.731666666667</v>
       </c>
       <c r="Y50" s="30">

--- a/SolarSystem_Batterylife_calc.xlsx
+++ b/SolarSystem_Batterylife_calc.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Gosselin\Desktop\MDA\MDA\FISH_BOWL\FISH_BOWL_V1\power_budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Gosselin\Desktop\MDA\MDA\FISH_BOWL\FISH_BOWL_V1\SolarSystem_Batterylife_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2998BF34-410D-4259-830D-3465D32770D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E91C4B2-FF7F-4F52-B8FD-75B71F6F9B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DBCC6AD-7DF6-405E-BC9C-23DF9360F44B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="70">
   <si>
     <t>Power_budget_v1</t>
   </si>
@@ -51,9 +43,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>1x laser</t>
-  </si>
-  <si>
     <t>10x laser</t>
   </si>
   <si>
@@ -123,15 +112,6 @@
     <t>Solar Panels</t>
   </si>
   <si>
-    <t>discharge time of the system</t>
-  </si>
-  <si>
-    <t>Function of the discharge :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power in the </t>
-  </si>
-  <si>
     <t>Arduino due</t>
   </si>
   <si>
@@ -141,21 +121,9 @@
     <t>solar pannel5-6</t>
   </si>
   <si>
-    <t>Battery charging time ( hour ) = Battery capacity ( In Ah ) / Current supplied ( In A )</t>
-  </si>
-  <si>
     <t>Current suppplied by solar panel</t>
   </si>
   <si>
-    <t>Battery charging time</t>
-  </si>
-  <si>
-    <t>Battery discharging time = Battery capacity ( In Ah ) / Current drawn from battery ( In A )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battery discharging time </t>
-  </si>
-  <si>
     <t>total current pulled</t>
   </si>
   <si>
@@ -192,15 +160,6 @@
     <t>4h00</t>
   </si>
   <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>percent discharge</t>
-  </si>
-  <si>
-    <t>hours to fully charge the battery</t>
-  </si>
-  <si>
     <t>Current measuring</t>
   </si>
   <si>
@@ -210,14 +169,80 @@
     <t>Discharge time</t>
   </si>
   <si>
-    <t>battery cap</t>
+    <t>indoor light3</t>
+  </si>
+  <si>
+    <t>battery cap in Wh</t>
+  </si>
+  <si>
+    <t>number of hours for total of Wh</t>
+  </si>
+  <si>
+    <t>Discharge of Wh</t>
+  </si>
+  <si>
+    <t>Corner lights x4</t>
+  </si>
+  <si>
+    <t>9h00</t>
+  </si>
+  <si>
+    <t>10h00</t>
+  </si>
+  <si>
+    <t>11h00</t>
+  </si>
+  <si>
+    <t>13h00</t>
+  </si>
+  <si>
+    <t>14h00</t>
+  </si>
+  <si>
+    <t>15h00</t>
+  </si>
+  <si>
+    <t>17h00</t>
+  </si>
+  <si>
+    <t>18h00</t>
+  </si>
+  <si>
+    <t>19h00</t>
+  </si>
+  <si>
+    <t>21h00</t>
+  </si>
+  <si>
+    <t>22h00</t>
+  </si>
+  <si>
+    <t>23h00</t>
+  </si>
+  <si>
+    <t>1h00</t>
+  </si>
+  <si>
+    <t>2h00</t>
+  </si>
+  <si>
+    <t>3h00</t>
+  </si>
+  <si>
+    <t>5h00</t>
+  </si>
+  <si>
+    <t>6h00</t>
+  </si>
+  <si>
+    <t>7h00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,14 +251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF6600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF6600"/>
       <name val="Calibri"/>
@@ -279,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -419,20 +436,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -440,12 +491,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -465,11 +515,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,7 +597,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$50</c:f>
+              <c:f>'Sheet1 (3)'!$B$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -565,81 +620,177 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$D$50:$AA$50</c:f>
+              <c:f>'Sheet1 (3)'!$D$51:$BG$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>2880</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2880</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2880</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2880</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2828.9450000000002</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2777.8900000000003</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2726.8350000000005</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2759.1133333333337</c:v>
+                  <c:v>2341.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2791.3916666666669</c:v>
+                  <c:v>2283.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2823.67</c:v>
+                  <c:v>2225.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2772.6150000000002</c:v>
+                  <c:v>2167</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2721.5600000000004</c:v>
+                  <c:v>2108.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2670.5050000000006</c:v>
+                  <c:v>2050.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2702.7833333333338</c:v>
+                  <c:v>1992.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2735.061666666667</c:v>
+                  <c:v>1934</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2767.34</c:v>
+                  <c:v>1875.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2716.2850000000003</c:v>
+                  <c:v>1817.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2665.2300000000005</c:v>
+                  <c:v>1759.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2614.1750000000006</c:v>
+                  <c:v>1701</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2646.4533333333338</c:v>
+                  <c:v>1642.75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2678.731666666667</c:v>
+                  <c:v>1584.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2711.01</c:v>
+                  <c:v>1526.25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2659.9550000000004</c:v>
+                  <c:v>1468</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2608.9000000000005</c:v>
+                  <c:v>1409.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1526.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1643.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1876.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1993.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2110.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2227</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2343.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2285.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2227.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2169</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2110.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2052.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1994.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1877.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1819.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1761.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1703</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1644.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1586.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1528.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1411.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1528.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1645.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1762</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1878.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1995.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2112.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2229</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2345.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,7 +798,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-977C-46A0-BDE9-370AAFFC58E6}"/>
+              <c16:uniqueId val="{00000000-D2F0-4D45-ACB9-456BD44BB5BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -867,424 +1018,6 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.1580358996027966E-2"/>
-          <c:y val="0.10547276344448799"/>
-          <c:w val="0.96021713652926433"/>
-          <c:h val="0.83733000257497814"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Battery life in hours</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$D$47:$AA$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$49:$AA$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>67.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>67.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>51.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>59.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>51.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>55.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>59.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>59.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>55.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>51.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>51.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>55.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>59.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>59.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>55.732831608654749</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>51.732831608654749</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-48A3-4BFB-9180-1FBB0AF5720D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="479505064"/>
-        <c:axId val="479498832"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="479505064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="479498832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="479498832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="479505064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1294,7 +1027,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$50</c:f>
+              <c:f>'Sheet1 (2)'!$B$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1317,81 +1050,81 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$50:$AA$50</c:f>
+              <c:f>'Sheet1 (2)'!$D$51:$AA$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>2880</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2880</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2880</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2880</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2838.9450000000002</c:v>
+                  <c:v>2360.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2797.8900000000003</c:v>
+                  <c:v>2321.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2756.8350000000005</c:v>
+                  <c:v>2282.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2799.1133333333337</c:v>
+                  <c:v>2343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2841.3916666666669</c:v>
+                  <c:v>2403.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2883.67</c:v>
+                  <c:v>2464.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2842.6150000000002</c:v>
+                  <c:v>2425.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2801.5600000000004</c:v>
+                  <c:v>2386</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2760.5050000000006</c:v>
+                  <c:v>2346.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2802.7833333333338</c:v>
+                  <c:v>2407.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2845.061666666667</c:v>
+                  <c:v>2468.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2887.34</c:v>
+                  <c:v>2529</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2846.2850000000003</c:v>
+                  <c:v>2489.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2805.2300000000005</c:v>
+                  <c:v>2450.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2764.1750000000006</c:v>
+                  <c:v>2411.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2806.4533333333338</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2848.731666666667</c:v>
+                  <c:v>2532.75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2891.01</c:v>
+                  <c:v>2593.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2849.9550000000004</c:v>
+                  <c:v>2554.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2808.9000000000005</c:v>
+                  <c:v>2515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1399,7 +1132,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F3E8-47F6-95C7-B8463A4B45A1}"/>
+              <c16:uniqueId val="{00000000-977C-46A0-BDE9-370AAFFC58E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1653,46 +1386,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2725,543 +2418,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>420831</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>121229</xdr:rowOff>
+      <xdr:colOff>360218</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>95253</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>93520</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42DCA28-3AA9-4C29-AEE3-F79FD9E01641}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D0881EE-DF84-4713-882C-0B407BB6F104}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3288,27 +2465,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>235528</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60613</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>142255</xdr:rowOff>
+      <xdr:rowOff>176647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>426027</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>41564</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>344635</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>148938</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7059B91B-6767-B260-3365-4E6CE25B5470}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42DCA28-3AA9-4C29-AEE3-F79FD9E01641}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3317,42 +2496,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>83129</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>474522</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>55420</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1918C8C4-9544-2FD7-0B6B-A894EDBC543F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3657,11 +2800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5769DF21-2449-4D5A-9C1E-229184D3705F}">
-  <dimension ref="A1:AA50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E567767-C5A6-402F-ACE4-E91BD73BA523}">
+  <dimension ref="A1:BG51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3670,7 +2813,7 @@
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3686,10 +2829,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -3702,7 +2845,7 @@
       </c>
       <c r="F4">
         <f>B4/D4</f>
-        <v>2.0833333333333335</v>
+        <v>1.5833333333333333</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -3710,10 +2853,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -3726,7 +2869,7 @@
       </c>
       <c r="F5">
         <f>B5/D5</f>
-        <v>2.0833333333333335</v>
+        <v>1.5833333333333333</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
@@ -3734,16 +2877,23 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>5.0000000000000001E-3</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
       <c r="F6">
-        <v>0.01</v>
+        <f>B6/D6</f>
+        <v>1.5833333333333333</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -3751,40 +2901,34 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <f>10*B6</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <f>0.05</f>
+        <v>0.05</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -3797,59 +2941,61 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1">
-        <f>SUM(B4:B8)</f>
-        <v>51.055</v>
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="24">
-        <f>SUM(F4:F8)</f>
-        <v>4.376666666666666</v>
-      </c>
-      <c r="G9" s="25" t="s">
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <f>D14*B14</f>
-        <v>1200</v>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <f>SUM(B4:B9)</f>
+        <v>58.25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="20">
+        <f>SUM(F4:F9)</f>
+        <v>4.9899999999999993</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>12</v>
@@ -3859,21 +3005,18 @@
       </c>
       <c r="F15">
         <f>D15*B15</f>
-        <v>240</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2">
-        <v>20</v>
+      <c r="B16">
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>12</v>
@@ -3883,21 +3026,21 @@
       </c>
       <c r="F16">
         <f>D16*B16</f>
-        <v>240</v>
+        <v>1200</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -3907,601 +3050,1106 @@
       </c>
       <c r="F17">
         <f>D17*B17</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
         <v>12</v>
       </c>
-      <c r="B18" s="3">
-        <f>SUM(B14:B17)</f>
-        <v>240</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f>D18*B18</f>
+        <v>1200</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B15:B18)</f>
+        <v>200</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <f>SUM(F15:F18)</f>
+        <v>2400</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="13">
+        <f>F19/B10</f>
+        <v>41.201716738197426</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="16">
+        <f>I19/24</f>
+        <v>1.7167381974248928</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>400</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1">
+        <f>SUM(B25:B26)</f>
+        <v>400</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>10.5</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <f>B30/B31*100</f>
+        <v>43.75</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1">
+        <f>B27*B32/100</f>
+        <v>175</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <f>B33/12</f>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38">
+        <f>D51-BG51</f>
+        <v>54.25</v>
+      </c>
+      <c r="J38">
+        <f>D51</f>
+        <v>2400</v>
+      </c>
+      <c r="K38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="H40" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1.78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="37">
+        <f>I39*J38/I38</f>
+        <v>2477.4193548387098</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H42" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="40">
+        <f>I41/24</f>
+        <v>103.22580645161291</v>
+      </c>
+      <c r="J42" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="H43" s="18"/>
+    </row>
+    <row r="48" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>6</v>
+      </c>
+      <c r="J48">
+        <v>7</v>
+      </c>
+      <c r="K48">
         <v>8</v>
       </c>
-      <c r="F18" s="1">
-        <f>SUM(F14:F17)</f>
-        <v>2880</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="L48">
+        <v>9</v>
+      </c>
+      <c r="M48">
+        <v>10</v>
+      </c>
+      <c r="N48">
+        <v>11</v>
+      </c>
+      <c r="O48">
+        <v>12</v>
+      </c>
+      <c r="P48">
+        <v>13</v>
+      </c>
+      <c r="Q48">
+        <v>14</v>
+      </c>
+      <c r="R48">
+        <f>Q48+1</f>
+        <v>15</v>
+      </c>
+      <c r="S48">
+        <f t="shared" ref="S48:AA48" si="0">R48+1</f>
         <v>16</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="16">
-        <f>F18/B9</f>
-        <v>56.409754186661445</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="19">
-        <f>I18/24</f>
-        <v>2.3504064244442269</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="8">
-        <v>400</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1">
-        <f>SUM(B24:B25)</f>
-        <v>400</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="8">
-        <v>5</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="8">
-        <v>24</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="8">
-        <f>B29/B30*100</f>
-        <v>20.833333333333336</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="1">
-        <f>B26*B31/100</f>
-        <v>83.333333333333343</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <f>B32/12</f>
-        <v>6.9444444444444455</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="I37">
-        <f>D50-AA50</f>
-        <v>271.09999999999945</v>
-      </c>
-      <c r="J37">
-        <f>D50</f>
-        <v>2880</v>
-      </c>
-      <c r="K37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I38">
-        <f>4*24</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="H39" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <v>1.78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="I40" s="41">
-        <f>I38*J37/I37</f>
-        <v>1019.8450756178553</v>
-      </c>
-      <c r="J40" s="42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H41" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" s="44">
-        <f>I40/24</f>
-        <v>42.493544817410637</v>
-      </c>
-      <c r="J41" s="45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="H42" s="22"/>
-    </row>
-    <row r="47" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-      <c r="H47">
-        <v>5</v>
-      </c>
-      <c r="I47">
-        <v>6</v>
-      </c>
-      <c r="J47">
-        <v>7</v>
-      </c>
-      <c r="K47">
-        <v>8</v>
-      </c>
-      <c r="L47">
-        <v>9</v>
-      </c>
-      <c r="M47">
-        <v>10</v>
-      </c>
-      <c r="N47">
-        <v>11</v>
-      </c>
-      <c r="O47">
-        <v>12</v>
-      </c>
-      <c r="P47">
-        <v>13</v>
-      </c>
-      <c r="Q47">
-        <v>14</v>
-      </c>
-      <c r="R47">
-        <f>Q47+1</f>
-        <v>15</v>
-      </c>
-      <c r="S47">
-        <f t="shared" ref="S47:AA47" si="0">R47+1</f>
-        <v>16</v>
-      </c>
-      <c r="T47">
+      <c r="T48">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="U47">
+      <c r="U48">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="V47">
+      <c r="V48">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="W47">
+      <c r="W48">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="X47">
+      <c r="X48">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Y47">
+      <c r="Y48">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Z47">
+      <c r="Z48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AA47">
+      <c r="AA48">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="26" t="s">
+      <c r="AB48">
+        <f t="shared" ref="AB48" si="1">AA48+1</f>
+        <v>25</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" ref="AC48" si="2">AB48+1</f>
+        <v>26</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" ref="AD48" si="3">AC48+1</f>
+        <v>27</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" ref="AE48" si="4">AD48+1</f>
+        <v>28</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" ref="AF48" si="5">AE48+1</f>
+        <v>29</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" ref="AG48" si="6">AF48+1</f>
+        <v>30</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" ref="AH48" si="7">AG48+1</f>
+        <v>31</v>
+      </c>
+      <c r="AI48">
+        <f t="shared" ref="AI48" si="8">AH48+1</f>
+        <v>32</v>
+      </c>
+      <c r="AJ48">
+        <f t="shared" ref="AJ48" si="9">AI48+1</f>
+        <v>33</v>
+      </c>
+      <c r="AK48">
+        <f t="shared" ref="AK48" si="10">AJ48+1</f>
+        <v>34</v>
+      </c>
+      <c r="AL48">
+        <f t="shared" ref="AL48" si="11">AK48+1</f>
+        <v>35</v>
+      </c>
+      <c r="AM48">
+        <f t="shared" ref="AM48" si="12">AL48+1</f>
+        <v>36</v>
+      </c>
+      <c r="AN48">
+        <f t="shared" ref="AN48" si="13">AM48+1</f>
+        <v>37</v>
+      </c>
+      <c r="AO48">
+        <f t="shared" ref="AO48" si="14">AN48+1</f>
+        <v>38</v>
+      </c>
+      <c r="AP48">
+        <f t="shared" ref="AP48" si="15">AO48+1</f>
+        <v>39</v>
+      </c>
+      <c r="AQ48">
+        <f t="shared" ref="AQ48" si="16">AP48+1</f>
+        <v>40</v>
+      </c>
+      <c r="AR48">
+        <f t="shared" ref="AR48" si="17">AQ48+1</f>
         <v>41</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="AS48">
+        <f t="shared" ref="AS48" si="18">AR48+1</f>
+        <v>42</v>
+      </c>
+      <c r="AT48">
+        <f t="shared" ref="AT48" si="19">AS48+1</f>
+        <v>43</v>
+      </c>
+      <c r="AU48">
+        <f t="shared" ref="AU48" si="20">AT48+1</f>
+        <v>44</v>
+      </c>
+      <c r="AV48">
+        <f t="shared" ref="AV48" si="21">AU48+1</f>
         <v>45</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27" t="s">
+      <c r="AW48">
+        <f t="shared" ref="AW48" si="22">AV48+1</f>
         <v>46</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="AX48">
+        <f t="shared" ref="AX48" si="23">AW48+1</f>
         <v>47</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="AY48">
+        <f t="shared" ref="AY48" si="24">AX48+1</f>
         <v>48</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="AZ48">
+        <f t="shared" ref="AZ48" si="25">AY48+1</f>
         <v>49</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="BA48">
+        <f t="shared" ref="BA48" si="26">AZ48+1</f>
         <v>50</v>
       </c>
-      <c r="I48" s="27" t="s">
+      <c r="BB48">
+        <f t="shared" ref="BB48" si="27">BA48+1</f>
         <v>51</v>
       </c>
-      <c r="J48" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L48" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="O48" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="P48" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q48" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="R48" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="S48" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="T48" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="U48" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="V48" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="W48" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="X48" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y48" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z48" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA48" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="29" t="s">
+      <c r="BC48">
+        <f t="shared" ref="BC48" si="28">BB48+1</f>
+        <v>52</v>
+      </c>
+      <c r="BD48">
+        <f t="shared" ref="BD48" si="29">BC48+1</f>
+        <v>53</v>
+      </c>
+      <c r="BE48">
+        <f t="shared" ref="BE48" si="30">BD48+1</f>
+        <v>54</v>
+      </c>
+      <c r="BF48">
+        <f t="shared" ref="BF48" si="31">BE48+1</f>
+        <v>55</v>
+      </c>
+      <c r="BG48">
+        <f t="shared" ref="BG48" si="32">BF48+1</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M49" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N49" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="O49" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q49" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R49" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="S49" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="T49" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="U49" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="V49" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="W49" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="X49" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32">
-        <f>I43</f>
+      <c r="Y49" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z49" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA49" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB49" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC49" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD49" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE49" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF49" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG49" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH49" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI49" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ49" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK49" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL49" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM49" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN49" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO49" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP49" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ49" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR49" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS49" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT49" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU49" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV49" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW49" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX49" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY49" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ49" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA49" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB49" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC49" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD49" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE49" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF49" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG49" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28">
+        <f>I44</f>
         <v>0</v>
       </c>
-      <c r="E49" s="32">
-        <f>D49</f>
+      <c r="E50" s="28">
+        <f>D50</f>
         <v>0</v>
       </c>
-      <c r="F49" s="32">
-        <f>E49</f>
+      <c r="F50" s="28">
+        <f>E50</f>
         <v>0</v>
       </c>
-      <c r="G49" s="32">
-        <f>F49-4</f>
+      <c r="G50" s="28">
+        <f>F50-4</f>
         <v>-4</v>
       </c>
-      <c r="H49" s="32">
-        <f>G49-4</f>
+      <c r="H50" s="28">
+        <f>G50-4</f>
         <v>-8</v>
       </c>
-      <c r="I49" s="32">
-        <f>H49-4</f>
+      <c r="I50" s="28">
+        <f>H50-4</f>
         <v>-12</v>
       </c>
-      <c r="J49" s="32">
-        <f>I49-4</f>
+      <c r="J50" s="28">
+        <f>I50-4</f>
         <v>-16</v>
       </c>
-      <c r="K49" s="32">
-        <f>J49+4</f>
+      <c r="K50" s="28">
+        <f>J50+4</f>
         <v>-12</v>
       </c>
-      <c r="L49" s="32">
-        <f>K49+4</f>
+      <c r="L50" s="28">
+        <f>K50+4</f>
         <v>-8</v>
       </c>
-      <c r="M49" s="32">
-        <f>L49</f>
+      <c r="M50" s="28">
+        <f>L50</f>
         <v>-8</v>
       </c>
-      <c r="N49" s="32">
-        <f>M49-4</f>
+      <c r="N50" s="28">
+        <f>M50-4</f>
         <v>-12</v>
       </c>
-      <c r="O49" s="33">
-        <f>N49-4</f>
+      <c r="O50" s="29">
+        <f>N50-4</f>
         <v>-16</v>
       </c>
-      <c r="P49" s="34">
-        <f>O49</f>
+      <c r="P50" s="30">
+        <f>O50</f>
         <v>-16</v>
       </c>
-      <c r="Q49" s="34">
-        <f>P49+4</f>
+      <c r="Q50" s="30">
+        <f>P50+4</f>
         <v>-12</v>
       </c>
-      <c r="R49" s="34">
-        <f>Q49+4</f>
+      <c r="R50" s="30">
+        <f>Q50+4</f>
         <v>-8</v>
       </c>
-      <c r="S49" s="34">
-        <f>R49</f>
+      <c r="S50" s="30">
+        <f>R50</f>
         <v>-8</v>
       </c>
-      <c r="T49" s="34">
-        <f>S49-4</f>
-        <v>-12</v>
-      </c>
-      <c r="U49" s="34">
-        <f>T49-4</f>
-        <v>-16</v>
-      </c>
-      <c r="V49" s="34">
-        <f>U49</f>
-        <v>-16</v>
-      </c>
-      <c r="W49" s="34">
-        <f>V49+4</f>
-        <v>-12</v>
-      </c>
-      <c r="X49" s="34">
-        <f>W49+4</f>
-        <v>-8</v>
-      </c>
-      <c r="Y49" s="34">
-        <f>X49</f>
-        <v>-8</v>
-      </c>
-      <c r="Z49" s="34">
-        <f>Y49-4</f>
-        <v>-12</v>
-      </c>
-      <c r="AA49" s="35">
-        <f>Z49-4</f>
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="36"/>
-      <c r="B50" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30">
-        <f>F18</f>
-        <v>2880</v>
-      </c>
-      <c r="E50" s="30">
-        <f>IF($B$32&gt;$B$9,D50,D50-$B$9-$B$32)</f>
-        <v>2880</v>
-      </c>
-      <c r="F50" s="30">
-        <f t="shared" ref="F50:G50" si="1">IF($B$32&gt;$B$9,E50,E50-$B$9-$B$32)</f>
-        <v>2880</v>
-      </c>
-      <c r="G50" s="30">
-        <f t="shared" si="1"/>
-        <v>2880</v>
-      </c>
-      <c r="H50" s="30">
-        <f>G50-B9</f>
-        <v>2828.9450000000002</v>
-      </c>
-      <c r="I50" s="30">
-        <f>H50-B9</f>
-        <v>2777.8900000000003</v>
-      </c>
-      <c r="J50" s="30">
-        <f>I50-B9</f>
-        <v>2726.8350000000005</v>
-      </c>
-      <c r="K50" s="30">
-        <f>J50+($B$32-$B$9)</f>
-        <v>2759.1133333333337</v>
-      </c>
-      <c r="L50" s="30">
-        <f t="shared" ref="L50:M50" si="2">K50+($B$32-$B$9)</f>
-        <v>2791.3916666666669</v>
-      </c>
-      <c r="M50" s="30">
-        <f t="shared" si="2"/>
-        <v>2823.67</v>
-      </c>
-      <c r="N50" s="30">
-        <f>M50-$B$9</f>
-        <v>2772.6150000000002</v>
-      </c>
-      <c r="O50" s="30">
-        <f>N50-$B$9</f>
-        <v>2721.5600000000004</v>
-      </c>
-      <c r="P50" s="30">
-        <f>O50-$B$9</f>
-        <v>2670.5050000000006</v>
-      </c>
-      <c r="Q50" s="30">
-        <f>P50+($B$32-$B$9)</f>
-        <v>2702.7833333333338</v>
-      </c>
-      <c r="R50" s="30">
-        <f>Q50+($B$32-$B$9)</f>
-        <v>2735.061666666667</v>
-      </c>
-      <c r="S50" s="30">
-        <f>R50+($B$32-$B$9)</f>
-        <v>2767.34</v>
-      </c>
       <c r="T50" s="30">
-        <f>S50-$B$9</f>
-        <v>2716.2850000000003</v>
+        <v>1</v>
       </c>
       <c r="U50" s="30">
-        <f>T50-$B$9</f>
-        <v>2665.2300000000005</v>
+        <f>T50-4</f>
+        <v>-3</v>
       </c>
       <c r="V50" s="30">
-        <f>U50-$B$9</f>
-        <v>2614.1750000000006</v>
+        <f>U50</f>
+        <v>-3</v>
       </c>
       <c r="W50" s="30">
-        <f>V50+($B$32-$B$9)</f>
-        <v>2646.4533333333338</v>
+        <f>V50+4</f>
+        <v>1</v>
       </c>
       <c r="X50" s="30">
-        <f t="shared" ref="X50:Y50" si="3">W50+($B$32-$B$9)</f>
-        <v>2678.731666666667</v>
+        <f>W50+4</f>
+        <v>5</v>
       </c>
       <c r="Y50" s="30">
-        <f t="shared" si="3"/>
-        <v>2711.01</v>
+        <f>X50</f>
+        <v>5</v>
       </c>
       <c r="Z50" s="30">
-        <f t="shared" ref="Z50:AA50" si="4">Y50-$B$9</f>
-        <v>2659.9550000000004</v>
+        <v>1</v>
       </c>
       <c r="AA50" s="31">
-        <f t="shared" si="4"/>
-        <v>2608.9000000000005</v>
+        <f>Z50-4</f>
+        <v>-3</v>
+      </c>
+      <c r="AB50" s="43">
+        <f t="shared" ref="AB50:BG50" si="33">AA50-4</f>
+        <v>-7</v>
+      </c>
+      <c r="AC50" s="43">
+        <f t="shared" si="33"/>
+        <v>-11</v>
+      </c>
+      <c r="AD50" s="43">
+        <f t="shared" si="33"/>
+        <v>-15</v>
+      </c>
+      <c r="AE50" s="43">
+        <f t="shared" si="33"/>
+        <v>-19</v>
+      </c>
+      <c r="AF50" s="43">
+        <f t="shared" si="33"/>
+        <v>-23</v>
+      </c>
+      <c r="AG50" s="43">
+        <f t="shared" si="33"/>
+        <v>-27</v>
+      </c>
+      <c r="AH50" s="43">
+        <f t="shared" si="33"/>
+        <v>-31</v>
+      </c>
+      <c r="AI50" s="43">
+        <f t="shared" si="33"/>
+        <v>-35</v>
+      </c>
+      <c r="AJ50" s="43">
+        <f t="shared" si="33"/>
+        <v>-39</v>
+      </c>
+      <c r="AK50" s="43">
+        <f t="shared" si="33"/>
+        <v>-43</v>
+      </c>
+      <c r="AL50" s="43">
+        <f t="shared" si="33"/>
+        <v>-47</v>
+      </c>
+      <c r="AM50" s="43">
+        <f t="shared" si="33"/>
+        <v>-51</v>
+      </c>
+      <c r="AN50" s="43">
+        <f t="shared" si="33"/>
+        <v>-55</v>
+      </c>
+      <c r="AO50" s="43">
+        <f t="shared" si="33"/>
+        <v>-59</v>
+      </c>
+      <c r="AP50" s="43">
+        <f t="shared" si="33"/>
+        <v>-63</v>
+      </c>
+      <c r="AQ50" s="43">
+        <f t="shared" si="33"/>
+        <v>-67</v>
+      </c>
+      <c r="AR50" s="43">
+        <f t="shared" si="33"/>
+        <v>-71</v>
+      </c>
+      <c r="AS50" s="43">
+        <f t="shared" si="33"/>
+        <v>-75</v>
+      </c>
+      <c r="AT50" s="43">
+        <f t="shared" si="33"/>
+        <v>-79</v>
+      </c>
+      <c r="AU50" s="43">
+        <f t="shared" si="33"/>
+        <v>-83</v>
+      </c>
+      <c r="AV50" s="43">
+        <f t="shared" si="33"/>
+        <v>-87</v>
+      </c>
+      <c r="AW50" s="43">
+        <f t="shared" si="33"/>
+        <v>-91</v>
+      </c>
+      <c r="AX50" s="43">
+        <f t="shared" si="33"/>
+        <v>-95</v>
+      </c>
+      <c r="AY50" s="43">
+        <f t="shared" si="33"/>
+        <v>-99</v>
+      </c>
+      <c r="AZ50" s="43">
+        <f t="shared" si="33"/>
+        <v>-103</v>
+      </c>
+      <c r="BA50" s="43">
+        <f t="shared" si="33"/>
+        <v>-107</v>
+      </c>
+      <c r="BB50" s="43">
+        <f t="shared" si="33"/>
+        <v>-111</v>
+      </c>
+      <c r="BC50" s="43">
+        <f t="shared" si="33"/>
+        <v>-115</v>
+      </c>
+      <c r="BD50" s="43">
+        <f t="shared" si="33"/>
+        <v>-119</v>
+      </c>
+      <c r="BE50" s="43">
+        <f t="shared" si="33"/>
+        <v>-123</v>
+      </c>
+      <c r="BF50" s="43">
+        <f t="shared" si="33"/>
+        <v>-127</v>
+      </c>
+      <c r="BG50" s="43">
+        <f t="shared" si="33"/>
+        <v>-131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="32"/>
+      <c r="B51" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26">
+        <f>F19</f>
+        <v>2400</v>
+      </c>
+      <c r="E51" s="26">
+        <f>IF($B$33&gt;$B$10,D51,D51-$B$10-$B$33)</f>
+        <v>2400</v>
+      </c>
+      <c r="F51" s="26">
+        <f t="shared" ref="F51:H51" si="34">IF($B$33&gt;$B$10,E51,E51-$B$10-$B$33)</f>
+        <v>2400</v>
+      </c>
+      <c r="G51" s="26">
+        <f t="shared" si="34"/>
+        <v>2400</v>
+      </c>
+      <c r="H51" s="26">
+        <f t="shared" si="34"/>
+        <v>2400</v>
+      </c>
+      <c r="I51" s="26">
+        <f t="shared" ref="I51" si="35">IF($B$33&gt;$B$10,H51,H51-$B$10-$B$33)</f>
+        <v>2400</v>
+      </c>
+      <c r="J51" s="26">
+        <f t="shared" ref="J51" si="36">IF($B$33&gt;$B$10,I51,I51-$B$10-$B$33)</f>
+        <v>2400</v>
+      </c>
+      <c r="K51" s="26">
+        <f>J51-$B$10</f>
+        <v>2341.75</v>
+      </c>
+      <c r="L51" s="26">
+        <f>K51-$B$10</f>
+        <v>2283.5</v>
+      </c>
+      <c r="M51" s="26">
+        <f t="shared" ref="M51:AA51" si="37">L51-$B$10</f>
+        <v>2225.25</v>
+      </c>
+      <c r="N51" s="26">
+        <f t="shared" si="37"/>
+        <v>2167</v>
+      </c>
+      <c r="O51" s="26">
+        <f t="shared" si="37"/>
+        <v>2108.75</v>
+      </c>
+      <c r="P51" s="26">
+        <f t="shared" si="37"/>
+        <v>2050.5</v>
+      </c>
+      <c r="Q51" s="26">
+        <f t="shared" si="37"/>
+        <v>1992.25</v>
+      </c>
+      <c r="R51" s="26">
+        <f t="shared" si="37"/>
+        <v>1934</v>
+      </c>
+      <c r="S51" s="26">
+        <f t="shared" si="37"/>
+        <v>1875.75</v>
+      </c>
+      <c r="T51" s="26">
+        <f t="shared" si="37"/>
+        <v>1817.5</v>
+      </c>
+      <c r="U51" s="26">
+        <f t="shared" si="37"/>
+        <v>1759.25</v>
+      </c>
+      <c r="V51" s="26">
+        <f t="shared" si="37"/>
+        <v>1701</v>
+      </c>
+      <c r="W51" s="26">
+        <f t="shared" si="37"/>
+        <v>1642.75</v>
+      </c>
+      <c r="X51" s="26">
+        <f t="shared" si="37"/>
+        <v>1584.5</v>
+      </c>
+      <c r="Y51" s="26">
+        <f t="shared" si="37"/>
+        <v>1526.25</v>
+      </c>
+      <c r="Z51" s="26">
+        <f t="shared" si="37"/>
+        <v>1468</v>
+      </c>
+      <c r="AA51" s="26">
+        <f t="shared" si="37"/>
+        <v>1409.75</v>
+      </c>
+      <c r="AB51" s="44">
+        <f>AA51+$B$33-$B$10</f>
+        <v>1526.5</v>
+      </c>
+      <c r="AC51" s="44">
+        <f t="shared" ref="AC51:AI51" si="38">AB51+$B$33-$B$10</f>
+        <v>1643.25</v>
+      </c>
+      <c r="AD51" s="44">
+        <f t="shared" si="38"/>
+        <v>1760</v>
+      </c>
+      <c r="AE51" s="44">
+        <f t="shared" si="38"/>
+        <v>1876.75</v>
+      </c>
+      <c r="AF51" s="44">
+        <f t="shared" si="38"/>
+        <v>1993.5</v>
+      </c>
+      <c r="AG51" s="44">
+        <f t="shared" si="38"/>
+        <v>2110.25</v>
+      </c>
+      <c r="AH51" s="44">
+        <f t="shared" si="38"/>
+        <v>2227</v>
+      </c>
+      <c r="AI51" s="44">
+        <f t="shared" si="38"/>
+        <v>2343.75</v>
+      </c>
+      <c r="AJ51" s="45">
+        <f>AI51-$B$10</f>
+        <v>2285.5</v>
+      </c>
+      <c r="AK51" s="45">
+        <f t="shared" ref="AK51:AY51" si="39">AJ51-$B$10</f>
+        <v>2227.25</v>
+      </c>
+      <c r="AL51" s="45">
+        <f t="shared" si="39"/>
+        <v>2169</v>
+      </c>
+      <c r="AM51" s="45">
+        <f t="shared" si="39"/>
+        <v>2110.75</v>
+      </c>
+      <c r="AN51" s="45">
+        <f t="shared" si="39"/>
+        <v>2052.5</v>
+      </c>
+      <c r="AO51" s="45">
+        <f t="shared" si="39"/>
+        <v>1994.25</v>
+      </c>
+      <c r="AP51" s="45">
+        <f t="shared" si="39"/>
+        <v>1936</v>
+      </c>
+      <c r="AQ51" s="45">
+        <f t="shared" si="39"/>
+        <v>1877.75</v>
+      </c>
+      <c r="AR51" s="45">
+        <f t="shared" si="39"/>
+        <v>1819.5</v>
+      </c>
+      <c r="AS51" s="45">
+        <f t="shared" si="39"/>
+        <v>1761.25</v>
+      </c>
+      <c r="AT51" s="45">
+        <f t="shared" si="39"/>
+        <v>1703</v>
+      </c>
+      <c r="AU51" s="45">
+        <f t="shared" si="39"/>
+        <v>1644.75</v>
+      </c>
+      <c r="AV51" s="45">
+        <f t="shared" si="39"/>
+        <v>1586.5</v>
+      </c>
+      <c r="AW51" s="45">
+        <f t="shared" si="39"/>
+        <v>1528.25</v>
+      </c>
+      <c r="AX51" s="45">
+        <f t="shared" si="39"/>
+        <v>1470</v>
+      </c>
+      <c r="AY51" s="46">
+        <f t="shared" si="39"/>
+        <v>1411.75</v>
+      </c>
+      <c r="AZ51" s="42">
+        <f>AY51+$B$33-$B$10</f>
+        <v>1528.5</v>
+      </c>
+      <c r="BA51" s="42">
+        <f t="shared" ref="BA51:BG51" si="40">AZ51+$B$33-$B$10</f>
+        <v>1645.25</v>
+      </c>
+      <c r="BB51" s="42">
+        <f t="shared" si="40"/>
+        <v>1762</v>
+      </c>
+      <c r="BC51" s="42">
+        <f t="shared" si="40"/>
+        <v>1878.75</v>
+      </c>
+      <c r="BD51" s="42">
+        <f t="shared" si="40"/>
+        <v>1995.5</v>
+      </c>
+      <c r="BE51" s="42">
+        <f t="shared" si="40"/>
+        <v>2112.25</v>
+      </c>
+      <c r="BF51" s="42">
+        <f t="shared" si="40"/>
+        <v>2229</v>
+      </c>
+      <c r="BG51" s="42">
+        <f t="shared" si="40"/>
+        <v>2345.75</v>
       </c>
     </row>
   </sheetData>
@@ -4512,19 +4160,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07076EF-AED3-4D29-8420-4B57E8532FE7}">
-  <dimension ref="A1:AA50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5769DF21-2449-4D5A-9C1E-229184D3705F}">
+  <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.109375" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4540,10 +4189,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -4556,7 +4205,7 @@
       </c>
       <c r="F4">
         <f>B4/D4</f>
-        <v>1.6666666666666667</v>
+        <v>1.5833333333333333</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -4564,10 +4213,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -4580,7 +4229,7 @@
       </c>
       <c r="F5">
         <f>B5/D5</f>
-        <v>1.6666666666666667</v>
+        <v>1.5833333333333333</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
@@ -4588,16 +4237,23 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
       <c r="F6">
-        <v>0.01</v>
+        <f>B6/D6</f>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -4605,40 +4261,34 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <f>10*B6</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <f>0.05</f>
+        <v>0.05</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -4651,59 +4301,61 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1">
-        <f>SUM(B4:B8)</f>
-        <v>41.055</v>
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="24">
-        <f>SUM(F4:F8)</f>
-        <v>3.5433333333333334</v>
-      </c>
-      <c r="G9" s="25" t="s">
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <f>D14*B14</f>
-        <v>1200</v>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <f>SUM(B4:B9)</f>
+        <v>39.25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="20">
+        <f>SUM(F4:F9)</f>
+        <v>3.4066666666666667</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>12</v>
@@ -4713,21 +4365,18 @@
       </c>
       <c r="F15">
         <f>D15*B15</f>
-        <v>240</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2">
-        <v>20</v>
+      <c r="B16">
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>12</v>
@@ -4737,21 +4386,21 @@
       </c>
       <c r="F16">
         <f>D16*B16</f>
-        <v>240</v>
+        <v>1200</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -4761,659 +4410,629 @@
       </c>
       <c r="F17">
         <f>D17*B17</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
         <v>12</v>
       </c>
-      <c r="B18" s="3">
-        <f>SUM(B14:B17)</f>
-        <v>240</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f>D18*B18</f>
+        <v>1200</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B15:B18)</f>
+        <v>200</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <f>SUM(F15:F18)</f>
+        <v>2400</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="13">
+        <f>F19/B10</f>
+        <v>61.146496815286625</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="16">
+        <f>I19/24</f>
+        <v>2.5477707006369426</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>400</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1">
+        <f>SUM(B25:B26)</f>
+        <v>400</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <f>B30/B31*100</f>
+        <v>25</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1">
+        <f>B27*B32/100</f>
+        <v>100</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <f>B33/12</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38">
+        <f>D51-AA51</f>
+        <v>-115</v>
+      </c>
+      <c r="J38">
+        <f>D51</f>
+        <v>2400</v>
+      </c>
+      <c r="K38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39">
+        <f>4*24</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="H40" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1.78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="37">
+        <f>I39*J38/I38</f>
+        <v>-2003.4782608695652</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H42" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="40">
+        <f>I41/24</f>
+        <v>-83.478260869565219</v>
+      </c>
+      <c r="J42" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="H43" s="18"/>
+    </row>
+    <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>6</v>
+      </c>
+      <c r="J48">
+        <v>7</v>
+      </c>
+      <c r="K48">
         <v>8</v>
       </c>
-      <c r="F18" s="1">
-        <f>SUM(F14:F17)</f>
-        <v>2880</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="L48">
+        <v>9</v>
+      </c>
+      <c r="M48">
+        <v>10</v>
+      </c>
+      <c r="N48">
+        <v>11</v>
+      </c>
+      <c r="O48">
+        <v>12</v>
+      </c>
+      <c r="P48">
+        <v>13</v>
+      </c>
+      <c r="Q48">
+        <v>14</v>
+      </c>
+      <c r="R48">
+        <f>Q48+1</f>
+        <v>15</v>
+      </c>
+      <c r="S48">
+        <f t="shared" ref="S48:AA48" si="0">R48+1</f>
         <v>16</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="16">
-        <f>F18/B9</f>
-        <v>70.14979905005481</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="19">
-        <f>I18/24</f>
-        <v>2.9229082937522839</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="8">
-        <v>400</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1">
-        <f>SUM(B24:B25)</f>
-        <v>400</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="I28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="8">
-        <v>5</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="8">
-        <v>24</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="8">
-        <f>B29/B30*100</f>
-        <v>20.833333333333336</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="1">
-        <f>B26*B31/100</f>
-        <v>83.333333333333343</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="H33" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="I34">
-        <f>I33/24</f>
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <f>B32/12</f>
-        <v>6.9444444444444455</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="H39" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="T39">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <v>1.78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40">
-        <f>B18/(B36-F9)</f>
-        <v>70.565174779483812</v>
-      </c>
-      <c r="J40" t="s">
-        <v>14</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40" t="s">
-        <v>52</v>
-      </c>
-      <c r="U40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="S41">
-        <f>J49</f>
-        <v>51.732831608654749</v>
-      </c>
-      <c r="T41">
-        <f>D49</f>
-        <v>67.732831608654749</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="H42" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="S42">
-        <f>(S41/T41)*100</f>
-        <v>76.37777777777778</v>
-      </c>
-      <c r="T42" t="s">
-        <v>52</v>
-      </c>
-      <c r="U42">
-        <v>100</v>
-      </c>
-      <c r="V42">
-        <f>U42-S42</f>
-        <v>23.62222222222222</v>
-      </c>
-      <c r="W42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="H43" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43">
-        <f>B18/F9</f>
-        <v>67.732831608654749</v>
-      </c>
-      <c r="J43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="T46">
-        <f>(V42/100)*T39</f>
-        <v>16.535555555555554</v>
-      </c>
-      <c r="U46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-      <c r="H47">
-        <v>5</v>
-      </c>
-      <c r="I47">
-        <v>6</v>
-      </c>
-      <c r="J47">
-        <v>7</v>
-      </c>
-      <c r="K47">
-        <v>8</v>
-      </c>
-      <c r="L47">
-        <v>9</v>
-      </c>
-      <c r="M47">
-        <v>10</v>
-      </c>
-      <c r="N47">
-        <v>11</v>
-      </c>
-      <c r="O47">
-        <v>12</v>
-      </c>
-      <c r="P47">
-        <v>13</v>
-      </c>
-      <c r="Q47">
-        <v>14</v>
-      </c>
-      <c r="R47">
-        <f>Q47+1</f>
-        <v>15</v>
-      </c>
-      <c r="S47">
-        <f t="shared" ref="S47:AA47" si="0">R47+1</f>
-        <v>16</v>
-      </c>
-      <c r="T47">
+      <c r="T48">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="U47">
+      <c r="U48">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="V47">
+      <c r="V48">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="W47">
+      <c r="W48">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="X47">
+      <c r="X48">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Y47">
+      <c r="Y48">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Z47">
+      <c r="Z48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AA47">
+      <c r="AA48">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="26" t="s">
+    <row r="49" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="H49" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M49" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N49" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q49" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R49" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="S49" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="T49" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="U49" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V49" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="W49" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="X49" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y49" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z49" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA49" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28">
+        <f>I44</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="28">
+        <f>D50</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="28">
+        <f>E50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="28">
+        <f>F50-4</f>
+        <v>-4</v>
+      </c>
+      <c r="H50" s="28">
+        <f>G50-4</f>
+        <v>-8</v>
+      </c>
+      <c r="I50" s="28">
+        <f>H50-4</f>
+        <v>-12</v>
+      </c>
+      <c r="J50" s="28">
+        <f>I50-4</f>
+        <v>-16</v>
+      </c>
+      <c r="K50" s="28">
+        <f>J50+4</f>
+        <v>-12</v>
+      </c>
+      <c r="L50" s="28">
+        <f>K50+4</f>
+        <v>-8</v>
+      </c>
+      <c r="M50" s="28">
+        <f>L50</f>
+        <v>-8</v>
+      </c>
+      <c r="N50" s="28">
+        <f>M50-4</f>
+        <v>-12</v>
+      </c>
+      <c r="O50" s="29">
+        <f>N50-4</f>
+        <v>-16</v>
+      </c>
+      <c r="P50" s="30">
+        <f>O50</f>
+        <v>-16</v>
+      </c>
+      <c r="Q50" s="30">
+        <f>P50+4</f>
+        <v>-12</v>
+      </c>
+      <c r="R50" s="30">
+        <f>Q50+4</f>
+        <v>-8</v>
+      </c>
+      <c r="S50" s="30">
+        <f>R50</f>
+        <v>-8</v>
+      </c>
+      <c r="T50" s="30">
+        <f>S50-4</f>
+        <v>-12</v>
+      </c>
+      <c r="U50" s="30">
+        <f>T50-4</f>
+        <v>-16</v>
+      </c>
+      <c r="V50" s="30">
+        <f>U50</f>
+        <v>-16</v>
+      </c>
+      <c r="W50" s="30">
+        <f>V50+4</f>
+        <v>-12</v>
+      </c>
+      <c r="X50" s="30">
+        <f>W50+4</f>
+        <v>-8</v>
+      </c>
+      <c r="Y50" s="30">
+        <f>X50</f>
+        <v>-8</v>
+      </c>
+      <c r="Z50" s="30">
+        <f>Y50-4</f>
+        <v>-12</v>
+      </c>
+      <c r="AA50" s="31">
+        <f>Z50-4</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="32"/>
+      <c r="B51" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="I48" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L48" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="O48" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="P48" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q48" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="R48" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="S48" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="T48" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="U48" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="V48" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="W48" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="X48" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y48" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z48" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA48" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32">
-        <f>I43</f>
-        <v>67.732831608654749</v>
-      </c>
-      <c r="E49" s="32">
-        <f>D49</f>
-        <v>67.732831608654749</v>
-      </c>
-      <c r="F49" s="32">
-        <f>E49</f>
-        <v>67.732831608654749</v>
-      </c>
-      <c r="G49" s="32">
-        <f>F49-4</f>
-        <v>63.732831608654749</v>
-      </c>
-      <c r="H49" s="32">
-        <f>G49-4</f>
-        <v>59.732831608654749</v>
-      </c>
-      <c r="I49" s="32">
-        <f>H49-4</f>
-        <v>55.732831608654749</v>
-      </c>
-      <c r="J49" s="32">
-        <f>I49-4</f>
-        <v>51.732831608654749</v>
-      </c>
-      <c r="K49" s="32">
-        <f>J49+4</f>
-        <v>55.732831608654749</v>
-      </c>
-      <c r="L49" s="32">
-        <f>K49+4</f>
-        <v>59.732831608654749</v>
-      </c>
-      <c r="M49" s="32">
-        <f>L49</f>
-        <v>59.732831608654749</v>
-      </c>
-      <c r="N49" s="32">
-        <f>M49-4</f>
-        <v>55.732831608654749</v>
-      </c>
-      <c r="O49" s="33">
-        <f>N49-4</f>
-        <v>51.732831608654749</v>
-      </c>
-      <c r="P49" s="34">
-        <f>O49</f>
-        <v>51.732831608654749</v>
-      </c>
-      <c r="Q49" s="34">
-        <f>P49+4</f>
-        <v>55.732831608654749</v>
-      </c>
-      <c r="R49" s="34">
-        <f>Q49+4</f>
-        <v>59.732831608654749</v>
-      </c>
-      <c r="S49" s="34">
-        <f>R49</f>
-        <v>59.732831608654749</v>
-      </c>
-      <c r="T49" s="34">
-        <f>S49-4</f>
-        <v>55.732831608654749</v>
-      </c>
-      <c r="U49" s="34">
-        <f>T49-4</f>
-        <v>51.732831608654749</v>
-      </c>
-      <c r="V49" s="34">
-        <f>U49</f>
-        <v>51.732831608654749</v>
-      </c>
-      <c r="W49" s="34">
-        <f>V49+4</f>
-        <v>55.732831608654749</v>
-      </c>
-      <c r="X49" s="34">
-        <f>W49+4</f>
-        <v>59.732831608654749</v>
-      </c>
-      <c r="Y49" s="34">
-        <f>X49</f>
-        <v>59.732831608654749</v>
-      </c>
-      <c r="Z49" s="34">
-        <f>Y49-4</f>
-        <v>55.732831608654749</v>
-      </c>
-      <c r="AA49" s="35">
-        <f>Z49-4</f>
-        <v>51.732831608654749</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="36"/>
-      <c r="B50" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30">
-        <f>F18</f>
-        <v>2880</v>
-      </c>
-      <c r="E50" s="30">
-        <f>D50</f>
-        <v>2880</v>
-      </c>
-      <c r="F50" s="30">
-        <f>E50</f>
-        <v>2880</v>
-      </c>
-      <c r="G50" s="30">
-        <f>F50</f>
-        <v>2880</v>
-      </c>
-      <c r="H50" s="30">
-        <f>G50-B9</f>
-        <v>2838.9450000000002</v>
-      </c>
-      <c r="I50" s="30">
-        <f>H50-B9</f>
-        <v>2797.8900000000003</v>
-      </c>
-      <c r="J50" s="30">
-        <f>I50-B9</f>
-        <v>2756.8350000000005</v>
-      </c>
-      <c r="K50" s="30">
-        <f>J50+($B$32-$B$9)</f>
-        <v>2799.1133333333337</v>
-      </c>
-      <c r="L50" s="30">
-        <f t="shared" ref="L50:M50" si="1">K50+($B$32-$B$9)</f>
-        <v>2841.3916666666669</v>
-      </c>
-      <c r="M50" s="30">
+      <c r="C51" s="26"/>
+      <c r="D51" s="26">
+        <f>F19</f>
+        <v>2400</v>
+      </c>
+      <c r="E51" s="26">
+        <f>IF($B$33&gt;$B$10,D51,D51-$B$10-$B$33)</f>
+        <v>2400</v>
+      </c>
+      <c r="F51" s="26">
+        <f t="shared" ref="F51:G51" si="1">IF($B$33&gt;$B$10,E51,E51-$B$10-$B$33)</f>
+        <v>2400</v>
+      </c>
+      <c r="G51" s="26">
         <f t="shared" si="1"/>
-        <v>2883.67</v>
-      </c>
-      <c r="N50" s="30">
-        <f>M50-$B$9</f>
-        <v>2842.6150000000002</v>
-      </c>
-      <c r="O50" s="30">
-        <f>N50-$B$9</f>
-        <v>2801.5600000000004</v>
-      </c>
-      <c r="P50" s="30">
-        <f>O50-$B$9</f>
-        <v>2760.5050000000006</v>
-      </c>
-      <c r="Q50" s="30">
-        <f>P50+($B$32-$B$9)</f>
-        <v>2802.7833333333338</v>
-      </c>
-      <c r="R50" s="30">
-        <f>Q50+($B$32-$B$9)</f>
-        <v>2845.061666666667</v>
-      </c>
-      <c r="S50" s="30">
-        <f>R50+($B$32-$B$9)</f>
-        <v>2887.34</v>
-      </c>
-      <c r="T50" s="30">
-        <f>S50-$B$9</f>
-        <v>2846.2850000000003</v>
-      </c>
-      <c r="U50" s="30">
-        <f>T50-$B$9</f>
-        <v>2805.2300000000005</v>
-      </c>
-      <c r="V50" s="30">
-        <f>U50-$B$9</f>
-        <v>2764.1750000000006</v>
-      </c>
-      <c r="W50" s="30">
-        <f>V50+($B$32-$B$9)</f>
-        <v>2806.4533333333338</v>
-      </c>
-      <c r="X50" s="30">
-        <f t="shared" ref="X50:Y50" si="2">W50+($B$32-$B$9)</f>
-        <v>2848.731666666667</v>
-      </c>
-      <c r="Y50" s="30">
+        <v>2400</v>
+      </c>
+      <c r="H51" s="26">
+        <f>G51-B10</f>
+        <v>2360.75</v>
+      </c>
+      <c r="I51" s="26">
+        <f>H51-B10</f>
+        <v>2321.5</v>
+      </c>
+      <c r="J51" s="26">
+        <f>I51-B10</f>
+        <v>2282.25</v>
+      </c>
+      <c r="K51" s="26">
+        <f>J51+($B$33-$B$10)</f>
+        <v>2343</v>
+      </c>
+      <c r="L51" s="26">
+        <f t="shared" ref="L51:M51" si="2">K51+($B$33-$B$10)</f>
+        <v>2403.75</v>
+      </c>
+      <c r="M51" s="26">
         <f t="shared" si="2"/>
-        <v>2891.01</v>
-      </c>
-      <c r="Z50" s="30">
-        <f t="shared" ref="Z50:AA50" si="3">Y50-$B$9</f>
-        <v>2849.9550000000004</v>
-      </c>
-      <c r="AA50" s="31">
+        <v>2464.5</v>
+      </c>
+      <c r="N51" s="26">
+        <f>M51-$B$10</f>
+        <v>2425.25</v>
+      </c>
+      <c r="O51" s="26">
+        <f>N51-$B$10</f>
+        <v>2386</v>
+      </c>
+      <c r="P51" s="26">
+        <f>O51-$B$10</f>
+        <v>2346.75</v>
+      </c>
+      <c r="Q51" s="26">
+        <f>P51+($B$33-$B$10)</f>
+        <v>2407.5</v>
+      </c>
+      <c r="R51" s="26">
+        <f>Q51+($B$33-$B$10)</f>
+        <v>2468.25</v>
+      </c>
+      <c r="S51" s="26">
+        <f>R51+($B$33-$B$10)</f>
+        <v>2529</v>
+      </c>
+      <c r="T51" s="26">
+        <f>S51-$B$10</f>
+        <v>2489.75</v>
+      </c>
+      <c r="U51" s="26">
+        <f>T51-$B$10</f>
+        <v>2450.5</v>
+      </c>
+      <c r="V51" s="26">
+        <f>U51-$B$10</f>
+        <v>2411.25</v>
+      </c>
+      <c r="W51" s="26">
+        <f>V51+($B$33-$B$10)</f>
+        <v>2472</v>
+      </c>
+      <c r="X51" s="26">
+        <f t="shared" ref="X51:Y51" si="3">W51+($B$33-$B$10)</f>
+        <v>2532.75</v>
+      </c>
+      <c r="Y51" s="26">
         <f t="shared" si="3"/>
-        <v>2808.9000000000005</v>
+        <v>2593.5</v>
+      </c>
+      <c r="Z51" s="26">
+        <f t="shared" ref="Z51:AA51" si="4">Y51-$B$10</f>
+        <v>2554.25</v>
+      </c>
+      <c r="AA51" s="27">
+        <f t="shared" si="4"/>
+        <v>2515</v>
       </c>
     </row>
   </sheetData>

--- a/SolarSystem_Batterylife_calc.xlsx
+++ b/SolarSystem_Batterylife_calc.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Gosselin\Desktop\MDA\MDA\FISH_BOWL\FISH_BOWL_V1\SolarSystem_Batterylife_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E91C4B2-FF7F-4F52-B8FD-75B71F6F9B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F8B17-1B7C-4F98-8371-4B9F57222EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DBCC6AD-7DF6-405E-BC9C-23DF9360F44B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="70">
   <si>
     <t>Power_budget_v1</t>
   </si>
@@ -181,9 +180,6 @@
     <t>Discharge of Wh</t>
   </si>
   <si>
-    <t>Corner lights x4</t>
-  </si>
-  <si>
     <t>9h00</t>
   </si>
   <si>
@@ -236,6 +232,9 @@
   </si>
   <si>
     <t>7h00</t>
+  </si>
+  <si>
+    <t>Corner lights x8</t>
   </si>
 </sst>
 </file>
@@ -477,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -505,7 +504,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -646,151 +644,151 @@
                   <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2341.75</c:v>
+                  <c:v>2358.71</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2283.5</c:v>
+                  <c:v>2317.42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2225.25</c:v>
+                  <c:v>2276.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2167</c:v>
+                  <c:v>2234.84</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2108.75</c:v>
+                  <c:v>2193.5500000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2050.5</c:v>
+                  <c:v>2152.2600000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1992.25</c:v>
+                  <c:v>2110.9700000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1934</c:v>
+                  <c:v>2069.6800000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1875.75</c:v>
+                  <c:v>2028.3900000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1817.5</c:v>
+                  <c:v>1987.1000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1759.25</c:v>
+                  <c:v>1945.8100000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1701</c:v>
+                  <c:v>1904.5200000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1642.75</c:v>
+                  <c:v>1863.2300000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1584.5</c:v>
+                  <c:v>1821.9400000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1526.25</c:v>
+                  <c:v>1780.6500000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1468</c:v>
+                  <c:v>1739.3600000000006</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1409.75</c:v>
+                  <c:v>1698.0700000000006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1526.5</c:v>
+                  <c:v>1780.1133333333339</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1643.25</c:v>
+                  <c:v>1862.1566666666672</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1760</c:v>
+                  <c:v>1944.2000000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1876.75</c:v>
+                  <c:v>2026.2433333333338</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1993.5</c:v>
+                  <c:v>2108.2866666666673</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2110.25</c:v>
+                  <c:v>2190.3300000000008</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2227</c:v>
+                  <c:v>2272.3733333333344</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2343.75</c:v>
+                  <c:v>2354.4166666666679</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2285.5</c:v>
+                  <c:v>2313.1266666666679</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2227.25</c:v>
+                  <c:v>2271.836666666668</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2169</c:v>
+                  <c:v>2230.546666666668</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2110.75</c:v>
+                  <c:v>2189.256666666668</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2052.5</c:v>
+                  <c:v>2147.9666666666681</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1994.25</c:v>
+                  <c:v>2106.6766666666681</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1936</c:v>
+                  <c:v>2065.3866666666681</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1877.75</c:v>
+                  <c:v>2024.0966666666682</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1819.5</c:v>
+                  <c:v>1982.8066666666682</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1761.25</c:v>
+                  <c:v>1941.5166666666682</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1703</c:v>
+                  <c:v>1900.2266666666683</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1644.75</c:v>
+                  <c:v>1858.9366666666683</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1586.5</c:v>
+                  <c:v>1817.6466666666684</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1528.25</c:v>
+                  <c:v>1776.3566666666684</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1470</c:v>
+                  <c:v>1735.0666666666684</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1411.75</c:v>
+                  <c:v>1693.7766666666685</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1528.5</c:v>
+                  <c:v>1775.8200000000018</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1645.25</c:v>
+                  <c:v>1857.863333333335</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1762</c:v>
+                  <c:v>1939.9066666666683</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1878.75</c:v>
+                  <c:v>2021.9500000000016</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1995.5</c:v>
+                  <c:v>2103.9933333333352</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2112.25</c:v>
+                  <c:v>2186.0366666666687</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2229</c:v>
+                  <c:v>2268.0800000000022</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2345.75</c:v>
+                  <c:v>2350.1233333333357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,340 +797,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D2F0-4D45-ACB9-456BD44BB5BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="483047944"/>
-        <c:axId val="483044336"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="483047944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="483044336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="483044336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="483047944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Battery capacity in Wh</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet1 (2)'!$D$51:$AA$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2360.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2321.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2282.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2343</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2403.75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2464.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2425.25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2386</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2346.75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2407.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2468.25</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2529</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2489.75</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2450.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2411.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2472</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2532.75</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2593.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2554.25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2515</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-977C-46A0-BDE9-370AAFFC58E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1346,563 +1010,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2461,49 +1569,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>60613</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>176647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>344635</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>148938</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42DCA28-3AA9-4C29-AEE3-F79FD9E01641}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2804,7 +1869,7 @@
   <dimension ref="A1:BG51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2880,7 +1945,7 @@
         <v>47</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -2893,7 +1958,7 @@
       </c>
       <c r="F6">
         <f>B6/D6</f>
-        <v>1.5833333333333333</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -2901,13 +1966,20 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <f>D7*F7*8</f>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
       </c>
       <c r="F7">
         <v>0.04</v>
@@ -2966,7 +2038,7 @@
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <f>SUM(B4:B9)</f>
-        <v>58.25</v>
+        <v>41.29</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -2976,7 +2048,7 @@
       </c>
       <c r="F10" s="20">
         <f>SUM(F4:F9)</f>
-        <v>4.9899999999999993</v>
+        <v>3.4066666666666667</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>4</v>
@@ -3037,7 +2109,7 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -3050,7 +2122,7 @@
       </c>
       <c r="F17">
         <f>D17*B17</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
@@ -3061,7 +2133,7 @@
         <v>10</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -3074,7 +2146,7 @@
       </c>
       <c r="F18">
         <f>D18*B18</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
@@ -3108,7 +2180,7 @@
       </c>
       <c r="I19" s="13">
         <f>F19/B10</f>
-        <v>41.201716738197426</v>
+        <v>58.125454105110194</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>13</v>
@@ -3120,7 +2192,7 @@
       </c>
       <c r="I20" s="16">
         <f>I19/24</f>
-        <v>1.7167381974248928</v>
+        <v>2.4218939210462582</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>14</v>
@@ -3181,7 +2253,7 @@
         <v>20</v>
       </c>
       <c r="B30">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>19</v>
@@ -3204,7 +2276,7 @@
       </c>
       <c r="B32">
         <f>B30/B31*100</f>
-        <v>43.75</v>
+        <v>30.833333333333336</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>25</v>
@@ -3216,7 +2288,7 @@
       </c>
       <c r="B33" s="1">
         <f>B27*B32/100</f>
-        <v>175</v>
+        <v>123.33333333333334</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>2</v>
@@ -3228,7 +2300,7 @@
       </c>
       <c r="B37">
         <f>B33/12</f>
-        <v>14.583333333333334</v>
+        <v>10.277777777777779</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -3240,7 +2312,7 @@
       </c>
       <c r="I38">
         <f>D51-BG51</f>
-        <v>54.25</v>
+        <v>49.876666666664278</v>
       </c>
       <c r="J38">
         <f>D51</f>
@@ -3259,11 +2331,11 @@
       </c>
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="35"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="34"/>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B41">
@@ -3275,26 +2347,26 @@
       <c r="D41" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I41" s="36">
         <f>I39*J38/I38</f>
-        <v>2477.4193548387098</v>
-      </c>
-      <c r="J41" s="38" t="s">
+        <v>2694.6467954288532</v>
+      </c>
+      <c r="J41" s="37" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="I42" s="40">
+      <c r="I42" s="39">
         <f>I41/24</f>
-        <v>103.22580645161291</v>
-      </c>
-      <c r="J42" s="41" t="s">
+        <v>112.27694980953555</v>
+      </c>
+      <c r="J42" s="40" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3525,404 +2597,404 @@
         <v>38</v>
       </c>
       <c r="E49" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="G49" s="23" t="s">
         <v>53</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>54</v>
       </c>
       <c r="H49" s="23" t="s">
         <v>39</v>
       </c>
       <c r="I49" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J49" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="23" t="s">
+      <c r="K49" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>57</v>
       </c>
       <c r="L49" s="23" t="s">
         <v>40</v>
       </c>
       <c r="M49" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="N49" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N49" s="23" t="s">
+      <c r="O49" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="O49" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="P49" s="23" t="s">
         <v>41</v>
       </c>
       <c r="Q49" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="R49" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="R49" s="23" t="s">
+      <c r="S49" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="S49" s="23" t="s">
-        <v>63</v>
       </c>
       <c r="T49" s="23" t="s">
         <v>42</v>
       </c>
       <c r="U49" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="V49" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="V49" s="23" t="s">
+      <c r="W49" s="23" t="s">
         <v>65</v>
-      </c>
-      <c r="W49" s="23" t="s">
-        <v>66</v>
       </c>
       <c r="X49" s="23" t="s">
         <v>43</v>
       </c>
       <c r="Y49" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z49" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="Z49" s="23" t="s">
+      <c r="AA49" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="AA49" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="AB49" s="23" t="s">
         <v>38</v>
       </c>
       <c r="AC49" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD49" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AD49" s="23" t="s">
+      <c r="AE49" s="23" t="s">
         <v>53</v>
-      </c>
-      <c r="AE49" s="23" t="s">
-        <v>54</v>
       </c>
       <c r="AF49" s="23" t="s">
         <v>39</v>
       </c>
       <c r="AG49" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH49" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="AH49" s="23" t="s">
+      <c r="AI49" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="AI49" s="23" t="s">
-        <v>57</v>
       </c>
       <c r="AJ49" s="23" t="s">
         <v>40</v>
       </c>
       <c r="AK49" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL49" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AL49" s="23" t="s">
+      <c r="AM49" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="AM49" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="AN49" s="23" t="s">
         <v>41</v>
       </c>
       <c r="AO49" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP49" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="AP49" s="23" t="s">
+      <c r="AQ49" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="AQ49" s="23" t="s">
-        <v>63</v>
       </c>
       <c r="AR49" s="23" t="s">
         <v>42</v>
       </c>
       <c r="AS49" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT49" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="AT49" s="23" t="s">
+      <c r="AU49" s="23" t="s">
         <v>65</v>
-      </c>
-      <c r="AU49" s="23" t="s">
-        <v>66</v>
       </c>
       <c r="AV49" s="23" t="s">
         <v>43</v>
       </c>
       <c r="AW49" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX49" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AX49" s="23" t="s">
+      <c r="AY49" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="AY49" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="AZ49" s="23" t="s">
         <v>38</v>
       </c>
       <c r="BA49" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB49" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="BB49" s="23" t="s">
+      <c r="BC49" s="23" t="s">
         <v>53</v>
-      </c>
-      <c r="BC49" s="23" t="s">
-        <v>54</v>
       </c>
       <c r="BD49" s="23" t="s">
         <v>39</v>
       </c>
       <c r="BE49" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF49" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="BF49" s="23" t="s">
+      <c r="BG49" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="BG49" s="23" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28">
+      <c r="C50" s="27"/>
+      <c r="D50" s="27">
         <f>I44</f>
         <v>0</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="27">
         <f>D50</f>
         <v>0</v>
       </c>
-      <c r="F50" s="28">
+      <c r="F50" s="27">
         <f>E50</f>
         <v>0</v>
       </c>
-      <c r="G50" s="28">
+      <c r="G50" s="27">
         <f>F50-4</f>
         <v>-4</v>
       </c>
-      <c r="H50" s="28">
+      <c r="H50" s="27">
         <f>G50-4</f>
         <v>-8</v>
       </c>
-      <c r="I50" s="28">
+      <c r="I50" s="27">
         <f>H50-4</f>
         <v>-12</v>
       </c>
-      <c r="J50" s="28">
+      <c r="J50" s="27">
         <f>I50-4</f>
         <v>-16</v>
       </c>
-      <c r="K50" s="28">
+      <c r="K50" s="27">
         <f>J50+4</f>
         <v>-12</v>
       </c>
-      <c r="L50" s="28">
+      <c r="L50" s="27">
         <f>K50+4</f>
         <v>-8</v>
       </c>
-      <c r="M50" s="28">
+      <c r="M50" s="27">
         <f>L50</f>
         <v>-8</v>
       </c>
-      <c r="N50" s="28">
+      <c r="N50" s="27">
         <f>M50-4</f>
         <v>-12</v>
       </c>
-      <c r="O50" s="29">
+      <c r="O50" s="28">
         <f>N50-4</f>
         <v>-16</v>
       </c>
-      <c r="P50" s="30">
+      <c r="P50" s="29">
         <f>O50</f>
         <v>-16</v>
       </c>
-      <c r="Q50" s="30">
+      <c r="Q50" s="29">
         <f>P50+4</f>
         <v>-12</v>
       </c>
-      <c r="R50" s="30">
+      <c r="R50" s="29">
         <f>Q50+4</f>
         <v>-8</v>
       </c>
-      <c r="S50" s="30">
+      <c r="S50" s="29">
         <f>R50</f>
         <v>-8</v>
       </c>
-      <c r="T50" s="30">
+      <c r="T50" s="29">
         <v>1</v>
       </c>
-      <c r="U50" s="30">
+      <c r="U50" s="29">
         <f>T50-4</f>
         <v>-3</v>
       </c>
-      <c r="V50" s="30">
+      <c r="V50" s="29">
         <f>U50</f>
         <v>-3</v>
       </c>
-      <c r="W50" s="30">
+      <c r="W50" s="29">
         <f>V50+4</f>
         <v>1</v>
       </c>
-      <c r="X50" s="30">
+      <c r="X50" s="29">
         <f>W50+4</f>
         <v>5</v>
       </c>
-      <c r="Y50" s="30">
+      <c r="Y50" s="29">
         <f>X50</f>
         <v>5</v>
       </c>
-      <c r="Z50" s="30">
+      <c r="Z50" s="29">
         <v>1</v>
       </c>
-      <c r="AA50" s="31">
+      <c r="AA50" s="30">
         <f>Z50-4</f>
         <v>-3</v>
       </c>
-      <c r="AB50" s="43">
+      <c r="AB50" s="42">
         <f t="shared" ref="AB50:BG50" si="33">AA50-4</f>
         <v>-7</v>
       </c>
-      <c r="AC50" s="43">
+      <c r="AC50" s="42">
         <f t="shared" si="33"/>
         <v>-11</v>
       </c>
-      <c r="AD50" s="43">
+      <c r="AD50" s="42">
         <f t="shared" si="33"/>
         <v>-15</v>
       </c>
-      <c r="AE50" s="43">
+      <c r="AE50" s="42">
         <f t="shared" si="33"/>
         <v>-19</v>
       </c>
-      <c r="AF50" s="43">
+      <c r="AF50" s="42">
         <f t="shared" si="33"/>
         <v>-23</v>
       </c>
-      <c r="AG50" s="43">
+      <c r="AG50" s="42">
         <f t="shared" si="33"/>
         <v>-27</v>
       </c>
-      <c r="AH50" s="43">
+      <c r="AH50" s="42">
         <f t="shared" si="33"/>
         <v>-31</v>
       </c>
-      <c r="AI50" s="43">
+      <c r="AI50" s="42">
         <f t="shared" si="33"/>
         <v>-35</v>
       </c>
-      <c r="AJ50" s="43">
+      <c r="AJ50" s="42">
         <f t="shared" si="33"/>
         <v>-39</v>
       </c>
-      <c r="AK50" s="43">
+      <c r="AK50" s="42">
         <f t="shared" si="33"/>
         <v>-43</v>
       </c>
-      <c r="AL50" s="43">
+      <c r="AL50" s="42">
         <f t="shared" si="33"/>
         <v>-47</v>
       </c>
-      <c r="AM50" s="43">
+      <c r="AM50" s="42">
         <f t="shared" si="33"/>
         <v>-51</v>
       </c>
-      <c r="AN50" s="43">
+      <c r="AN50" s="42">
         <f t="shared" si="33"/>
         <v>-55</v>
       </c>
-      <c r="AO50" s="43">
+      <c r="AO50" s="42">
         <f t="shared" si="33"/>
         <v>-59</v>
       </c>
-      <c r="AP50" s="43">
+      <c r="AP50" s="42">
         <f t="shared" si="33"/>
         <v>-63</v>
       </c>
-      <c r="AQ50" s="43">
+      <c r="AQ50" s="42">
         <f t="shared" si="33"/>
         <v>-67</v>
       </c>
-      <c r="AR50" s="43">
+      <c r="AR50" s="42">
         <f t="shared" si="33"/>
         <v>-71</v>
       </c>
-      <c r="AS50" s="43">
+      <c r="AS50" s="42">
         <f t="shared" si="33"/>
         <v>-75</v>
       </c>
-      <c r="AT50" s="43">
+      <c r="AT50" s="42">
         <f t="shared" si="33"/>
         <v>-79</v>
       </c>
-      <c r="AU50" s="43">
+      <c r="AU50" s="42">
         <f t="shared" si="33"/>
         <v>-83</v>
       </c>
-      <c r="AV50" s="43">
+      <c r="AV50" s="42">
         <f t="shared" si="33"/>
         <v>-87</v>
       </c>
-      <c r="AW50" s="43">
+      <c r="AW50" s="42">
         <f t="shared" si="33"/>
         <v>-91</v>
       </c>
-      <c r="AX50" s="43">
+      <c r="AX50" s="42">
         <f t="shared" si="33"/>
         <v>-95</v>
       </c>
-      <c r="AY50" s="43">
+      <c r="AY50" s="42">
         <f t="shared" si="33"/>
         <v>-99</v>
       </c>
-      <c r="AZ50" s="43">
+      <c r="AZ50" s="42">
         <f t="shared" si="33"/>
         <v>-103</v>
       </c>
-      <c r="BA50" s="43">
+      <c r="BA50" s="42">
         <f t="shared" si="33"/>
         <v>-107</v>
       </c>
-      <c r="BB50" s="43">
+      <c r="BB50" s="42">
         <f t="shared" si="33"/>
         <v>-111</v>
       </c>
-      <c r="BC50" s="43">
+      <c r="BC50" s="42">
         <f t="shared" si="33"/>
         <v>-115</v>
       </c>
-      <c r="BD50" s="43">
+      <c r="BD50" s="42">
         <f t="shared" si="33"/>
         <v>-119</v>
       </c>
-      <c r="BE50" s="43">
+      <c r="BE50" s="42">
         <f t="shared" si="33"/>
         <v>-123</v>
       </c>
-      <c r="BF50" s="43">
+      <c r="BF50" s="42">
         <f t="shared" si="33"/>
         <v>-127</v>
       </c>
-      <c r="BG50" s="43">
+      <c r="BG50" s="42">
         <f t="shared" si="33"/>
         <v>-131</v>
       </c>
     </row>
     <row r="51" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="32"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="26" t="s">
         <v>45</v>
       </c>
@@ -3957,1082 +3029,199 @@
       </c>
       <c r="K51" s="26">
         <f>J51-$B$10</f>
-        <v>2341.75</v>
+        <v>2358.71</v>
       </c>
       <c r="L51" s="26">
         <f>K51-$B$10</f>
-        <v>2283.5</v>
+        <v>2317.42</v>
       </c>
       <c r="M51" s="26">
         <f t="shared" ref="M51:AA51" si="37">L51-$B$10</f>
-        <v>2225.25</v>
+        <v>2276.13</v>
       </c>
       <c r="N51" s="26">
         <f t="shared" si="37"/>
-        <v>2167</v>
+        <v>2234.84</v>
       </c>
       <c r="O51" s="26">
         <f t="shared" si="37"/>
-        <v>2108.75</v>
+        <v>2193.5500000000002</v>
       </c>
       <c r="P51" s="26">
         <f t="shared" si="37"/>
-        <v>2050.5</v>
+        <v>2152.2600000000002</v>
       </c>
       <c r="Q51" s="26">
         <f t="shared" si="37"/>
-        <v>1992.25</v>
+        <v>2110.9700000000003</v>
       </c>
       <c r="R51" s="26">
         <f t="shared" si="37"/>
-        <v>1934</v>
+        <v>2069.6800000000003</v>
       </c>
       <c r="S51" s="26">
         <f t="shared" si="37"/>
-        <v>1875.75</v>
+        <v>2028.3900000000003</v>
       </c>
       <c r="T51" s="26">
         <f t="shared" si="37"/>
-        <v>1817.5</v>
+        <v>1987.1000000000004</v>
       </c>
       <c r="U51" s="26">
         <f t="shared" si="37"/>
-        <v>1759.25</v>
+        <v>1945.8100000000004</v>
       </c>
       <c r="V51" s="26">
         <f t="shared" si="37"/>
-        <v>1701</v>
+        <v>1904.5200000000004</v>
       </c>
       <c r="W51" s="26">
         <f t="shared" si="37"/>
-        <v>1642.75</v>
+        <v>1863.2300000000005</v>
       </c>
       <c r="X51" s="26">
         <f t="shared" si="37"/>
-        <v>1584.5</v>
+        <v>1821.9400000000005</v>
       </c>
       <c r="Y51" s="26">
         <f t="shared" si="37"/>
-        <v>1526.25</v>
+        <v>1780.6500000000005</v>
       </c>
       <c r="Z51" s="26">
         <f t="shared" si="37"/>
-        <v>1468</v>
+        <v>1739.3600000000006</v>
       </c>
       <c r="AA51" s="26">
         <f t="shared" si="37"/>
-        <v>1409.75</v>
-      </c>
-      <c r="AB51" s="44">
+        <v>1698.0700000000006</v>
+      </c>
+      <c r="AB51" s="43">
         <f>AA51+$B$33-$B$10</f>
-        <v>1526.5</v>
-      </c>
-      <c r="AC51" s="44">
+        <v>1780.1133333333339</v>
+      </c>
+      <c r="AC51" s="43">
         <f t="shared" ref="AC51:AI51" si="38">AB51+$B$33-$B$10</f>
-        <v>1643.25</v>
-      </c>
-      <c r="AD51" s="44">
+        <v>1862.1566666666672</v>
+      </c>
+      <c r="AD51" s="43">
         <f t="shared" si="38"/>
-        <v>1760</v>
-      </c>
-      <c r="AE51" s="44">
+        <v>1944.2000000000005</v>
+      </c>
+      <c r="AE51" s="43">
         <f t="shared" si="38"/>
-        <v>1876.75</v>
-      </c>
-      <c r="AF51" s="44">
+        <v>2026.2433333333338</v>
+      </c>
+      <c r="AF51" s="43">
         <f t="shared" si="38"/>
-        <v>1993.5</v>
-      </c>
-      <c r="AG51" s="44">
+        <v>2108.2866666666673</v>
+      </c>
+      <c r="AG51" s="43">
         <f t="shared" si="38"/>
-        <v>2110.25</v>
-      </c>
-      <c r="AH51" s="44">
+        <v>2190.3300000000008</v>
+      </c>
+      <c r="AH51" s="43">
         <f t="shared" si="38"/>
-        <v>2227</v>
-      </c>
-      <c r="AI51" s="44">
+        <v>2272.3733333333344</v>
+      </c>
+      <c r="AI51" s="43">
         <f t="shared" si="38"/>
-        <v>2343.75</v>
-      </c>
-      <c r="AJ51" s="45">
+        <v>2354.4166666666679</v>
+      </c>
+      <c r="AJ51" s="44">
         <f>AI51-$B$10</f>
-        <v>2285.5</v>
-      </c>
-      <c r="AK51" s="45">
+        <v>2313.1266666666679</v>
+      </c>
+      <c r="AK51" s="44">
         <f t="shared" ref="AK51:AY51" si="39">AJ51-$B$10</f>
-        <v>2227.25</v>
-      </c>
-      <c r="AL51" s="45">
+        <v>2271.836666666668</v>
+      </c>
+      <c r="AL51" s="44">
         <f t="shared" si="39"/>
-        <v>2169</v>
-      </c>
-      <c r="AM51" s="45">
+        <v>2230.546666666668</v>
+      </c>
+      <c r="AM51" s="44">
         <f t="shared" si="39"/>
-        <v>2110.75</v>
-      </c>
-      <c r="AN51" s="45">
+        <v>2189.256666666668</v>
+      </c>
+      <c r="AN51" s="44">
         <f t="shared" si="39"/>
-        <v>2052.5</v>
-      </c>
-      <c r="AO51" s="45">
+        <v>2147.9666666666681</v>
+      </c>
+      <c r="AO51" s="44">
         <f t="shared" si="39"/>
-        <v>1994.25</v>
-      </c>
-      <c r="AP51" s="45">
+        <v>2106.6766666666681</v>
+      </c>
+      <c r="AP51" s="44">
         <f t="shared" si="39"/>
-        <v>1936</v>
-      </c>
-      <c r="AQ51" s="45">
+        <v>2065.3866666666681</v>
+      </c>
+      <c r="AQ51" s="44">
         <f t="shared" si="39"/>
-        <v>1877.75</v>
-      </c>
-      <c r="AR51" s="45">
+        <v>2024.0966666666682</v>
+      </c>
+      <c r="AR51" s="44">
         <f t="shared" si="39"/>
-        <v>1819.5</v>
-      </c>
-      <c r="AS51" s="45">
+        <v>1982.8066666666682</v>
+      </c>
+      <c r="AS51" s="44">
         <f t="shared" si="39"/>
-        <v>1761.25</v>
-      </c>
-      <c r="AT51" s="45">
+        <v>1941.5166666666682</v>
+      </c>
+      <c r="AT51" s="44">
         <f t="shared" si="39"/>
-        <v>1703</v>
-      </c>
-      <c r="AU51" s="45">
+        <v>1900.2266666666683</v>
+      </c>
+      <c r="AU51" s="44">
         <f t="shared" si="39"/>
-        <v>1644.75</v>
-      </c>
-      <c r="AV51" s="45">
+        <v>1858.9366666666683</v>
+      </c>
+      <c r="AV51" s="44">
         <f t="shared" si="39"/>
-        <v>1586.5</v>
-      </c>
-      <c r="AW51" s="45">
+        <v>1817.6466666666684</v>
+      </c>
+      <c r="AW51" s="44">
         <f t="shared" si="39"/>
-        <v>1528.25</v>
-      </c>
-      <c r="AX51" s="45">
+        <v>1776.3566666666684</v>
+      </c>
+      <c r="AX51" s="44">
         <f t="shared" si="39"/>
-        <v>1470</v>
-      </c>
-      <c r="AY51" s="46">
+        <v>1735.0666666666684</v>
+      </c>
+      <c r="AY51" s="45">
         <f t="shared" si="39"/>
-        <v>1411.75</v>
-      </c>
-      <c r="AZ51" s="42">
+        <v>1693.7766666666685</v>
+      </c>
+      <c r="AZ51" s="41">
         <f>AY51+$B$33-$B$10</f>
-        <v>1528.5</v>
-      </c>
-      <c r="BA51" s="42">
+        <v>1775.8200000000018</v>
+      </c>
+      <c r="BA51" s="41">
         <f t="shared" ref="BA51:BG51" si="40">AZ51+$B$33-$B$10</f>
-        <v>1645.25</v>
-      </c>
-      <c r="BB51" s="42">
+        <v>1857.863333333335</v>
+      </c>
+      <c r="BB51" s="41">
         <f t="shared" si="40"/>
-        <v>1762</v>
-      </c>
-      <c r="BC51" s="42">
+        <v>1939.9066666666683</v>
+      </c>
+      <c r="BC51" s="41">
         <f t="shared" si="40"/>
-        <v>1878.75</v>
-      </c>
-      <c r="BD51" s="42">
+        <v>2021.9500000000016</v>
+      </c>
+      <c r="BD51" s="41">
         <f t="shared" si="40"/>
-        <v>1995.5</v>
-      </c>
-      <c r="BE51" s="42">
+        <v>2103.9933333333352</v>
+      </c>
+      <c r="BE51" s="41">
         <f t="shared" si="40"/>
-        <v>2112.25</v>
-      </c>
-      <c r="BF51" s="42">
+        <v>2186.0366666666687</v>
+      </c>
+      <c r="BF51" s="41">
         <f t="shared" si="40"/>
-        <v>2229</v>
-      </c>
-      <c r="BG51" s="42">
+        <v>2268.0800000000022</v>
+      </c>
+      <c r="BG51" s="41">
         <f t="shared" si="40"/>
-        <v>2345.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5769DF21-2449-4D5A-9C1E-229184D3705F}">
-  <dimension ref="A1:AA51"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="8" max="8" width="32.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <f>B4/D4</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <f>B5/D5</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <f>B6/D6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7">
-        <v>0.2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.04</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <f>0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>0.1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>0.1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1">
-        <f>SUM(B4:B9)</f>
-        <v>39.25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="20">
-        <f>SUM(F4:F9)</f>
-        <v>3.4066666666666667</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <f>D15*B15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>100</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <f>D16*B16</f>
-        <v>1200</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <f>D17*B17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <f>D18*B18</f>
-        <v>1200</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <f>SUM(B15:B18)</f>
-        <v>200</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1">
-        <f>SUM(F15:F18)</f>
-        <v>2400</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="13">
-        <f>F19/B10</f>
-        <v>61.146496815286625</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="16">
-        <f>I19/24</f>
-        <v>2.5477707006369426</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>400</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1">
-        <f>SUM(B25:B26)</f>
-        <v>400</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31">
-        <v>24</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32">
-        <f>B30/B31*100</f>
-        <v>25</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="1">
-        <f>B27*B32/100</f>
-        <v>100</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <f>B33/12</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38">
-        <f>D51-AA51</f>
-        <v>-115</v>
-      </c>
-      <c r="J38">
-        <f>D51</f>
-        <v>2400</v>
-      </c>
-      <c r="K38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39">
-        <f>4*24</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="H40" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="35"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <v>1.78</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41" s="37">
-        <f>I39*J38/I38</f>
-        <v>-2003.4782608695652</v>
-      </c>
-      <c r="J41" s="38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H42" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" s="40">
-        <f>I41/24</f>
-        <v>-83.478260869565219</v>
-      </c>
-      <c r="J42" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="H43" s="18"/>
-    </row>
-    <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48">
-        <v>3</v>
-      </c>
-      <c r="G48">
-        <v>4</v>
-      </c>
-      <c r="H48">
-        <v>5</v>
-      </c>
-      <c r="I48">
-        <v>6</v>
-      </c>
-      <c r="J48">
-        <v>7</v>
-      </c>
-      <c r="K48">
-        <v>8</v>
-      </c>
-      <c r="L48">
-        <v>9</v>
-      </c>
-      <c r="M48">
-        <v>10</v>
-      </c>
-      <c r="N48">
-        <v>11</v>
-      </c>
-      <c r="O48">
-        <v>12</v>
-      </c>
-      <c r="P48">
-        <v>13</v>
-      </c>
-      <c r="Q48">
-        <v>14</v>
-      </c>
-      <c r="R48">
-        <f>Q48+1</f>
-        <v>15</v>
-      </c>
-      <c r="S48">
-        <f t="shared" ref="S48:AA48" si="0">R48+1</f>
-        <v>16</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="U48">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="V48">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="W48">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="X48">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="Y48">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="Z48">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AA48">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J49" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="L49" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M49" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="N49" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="O49" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="P49" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q49" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="R49" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="S49" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="T49" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="U49" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="V49" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="W49" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="X49" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y49" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z49" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA49" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28">
-        <f>I44</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="28">
-        <f>D50</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="28">
-        <f>E50</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="28">
-        <f>F50-4</f>
-        <v>-4</v>
-      </c>
-      <c r="H50" s="28">
-        <f>G50-4</f>
-        <v>-8</v>
-      </c>
-      <c r="I50" s="28">
-        <f>H50-4</f>
-        <v>-12</v>
-      </c>
-      <c r="J50" s="28">
-        <f>I50-4</f>
-        <v>-16</v>
-      </c>
-      <c r="K50" s="28">
-        <f>J50+4</f>
-        <v>-12</v>
-      </c>
-      <c r="L50" s="28">
-        <f>K50+4</f>
-        <v>-8</v>
-      </c>
-      <c r="M50" s="28">
-        <f>L50</f>
-        <v>-8</v>
-      </c>
-      <c r="N50" s="28">
-        <f>M50-4</f>
-        <v>-12</v>
-      </c>
-      <c r="O50" s="29">
-        <f>N50-4</f>
-        <v>-16</v>
-      </c>
-      <c r="P50" s="30">
-        <f>O50</f>
-        <v>-16</v>
-      </c>
-      <c r="Q50" s="30">
-        <f>P50+4</f>
-        <v>-12</v>
-      </c>
-      <c r="R50" s="30">
-        <f>Q50+4</f>
-        <v>-8</v>
-      </c>
-      <c r="S50" s="30">
-        <f>R50</f>
-        <v>-8</v>
-      </c>
-      <c r="T50" s="30">
-        <f>S50-4</f>
-        <v>-12</v>
-      </c>
-      <c r="U50" s="30">
-        <f>T50-4</f>
-        <v>-16</v>
-      </c>
-      <c r="V50" s="30">
-        <f>U50</f>
-        <v>-16</v>
-      </c>
-      <c r="W50" s="30">
-        <f>V50+4</f>
-        <v>-12</v>
-      </c>
-      <c r="X50" s="30">
-        <f>W50+4</f>
-        <v>-8</v>
-      </c>
-      <c r="Y50" s="30">
-        <f>X50</f>
-        <v>-8</v>
-      </c>
-      <c r="Z50" s="30">
-        <f>Y50-4</f>
-        <v>-12</v>
-      </c>
-      <c r="AA50" s="31">
-        <f>Z50-4</f>
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="32"/>
-      <c r="B51" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26">
-        <f>F19</f>
-        <v>2400</v>
-      </c>
-      <c r="E51" s="26">
-        <f>IF($B$33&gt;$B$10,D51,D51-$B$10-$B$33)</f>
-        <v>2400</v>
-      </c>
-      <c r="F51" s="26">
-        <f t="shared" ref="F51:G51" si="1">IF($B$33&gt;$B$10,E51,E51-$B$10-$B$33)</f>
-        <v>2400</v>
-      </c>
-      <c r="G51" s="26">
-        <f t="shared" si="1"/>
-        <v>2400</v>
-      </c>
-      <c r="H51" s="26">
-        <f>G51-B10</f>
-        <v>2360.75</v>
-      </c>
-      <c r="I51" s="26">
-        <f>H51-B10</f>
-        <v>2321.5</v>
-      </c>
-      <c r="J51" s="26">
-        <f>I51-B10</f>
-        <v>2282.25</v>
-      </c>
-      <c r="K51" s="26">
-        <f>J51+($B$33-$B$10)</f>
-        <v>2343</v>
-      </c>
-      <c r="L51" s="26">
-        <f t="shared" ref="L51:M51" si="2">K51+($B$33-$B$10)</f>
-        <v>2403.75</v>
-      </c>
-      <c r="M51" s="26">
-        <f t="shared" si="2"/>
-        <v>2464.5</v>
-      </c>
-      <c r="N51" s="26">
-        <f>M51-$B$10</f>
-        <v>2425.25</v>
-      </c>
-      <c r="O51" s="26">
-        <f>N51-$B$10</f>
-        <v>2386</v>
-      </c>
-      <c r="P51" s="26">
-        <f>O51-$B$10</f>
-        <v>2346.75</v>
-      </c>
-      <c r="Q51" s="26">
-        <f>P51+($B$33-$B$10)</f>
-        <v>2407.5</v>
-      </c>
-      <c r="R51" s="26">
-        <f>Q51+($B$33-$B$10)</f>
-        <v>2468.25</v>
-      </c>
-      <c r="S51" s="26">
-        <f>R51+($B$33-$B$10)</f>
-        <v>2529</v>
-      </c>
-      <c r="T51" s="26">
-        <f>S51-$B$10</f>
-        <v>2489.75</v>
-      </c>
-      <c r="U51" s="26">
-        <f>T51-$B$10</f>
-        <v>2450.5</v>
-      </c>
-      <c r="V51" s="26">
-        <f>U51-$B$10</f>
-        <v>2411.25</v>
-      </c>
-      <c r="W51" s="26">
-        <f>V51+($B$33-$B$10)</f>
-        <v>2472</v>
-      </c>
-      <c r="X51" s="26">
-        <f t="shared" ref="X51:Y51" si="3">W51+($B$33-$B$10)</f>
-        <v>2532.75</v>
-      </c>
-      <c r="Y51" s="26">
-        <f t="shared" si="3"/>
-        <v>2593.5</v>
-      </c>
-      <c r="Z51" s="26">
-        <f t="shared" ref="Z51:AA51" si="4">Y51-$B$10</f>
-        <v>2554.25</v>
-      </c>
-      <c r="AA51" s="27">
-        <f t="shared" si="4"/>
-        <v>2515</v>
+        <v>2350.1233333333357</v>
       </c>
     </row>
   </sheetData>

--- a/SolarSystem_Batterylife_calc.xlsx
+++ b/SolarSystem_Batterylife_calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Gosselin\Desktop\MDA\MDA\FISH_BOWL\FISH_BOWL_V1\SolarSystem_Batterylife_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F8B17-1B7C-4F98-8371-4B9F57222EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7444FA0-94AD-4A91-9DAC-E85DD6116224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DBCC6AD-7DF6-405E-BC9C-23DF9360F44B}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{1DBCC6AD-7DF6-405E-BC9C-23DF9360F44B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Average solar output per day</t>
-  </si>
-  <si>
     <t>Solar Panels</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>Corner lights x8</t>
+  </si>
+  <si>
+    <t>Average solar output</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1869,7 @@
   <dimension ref="A1:BG51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <f>D7*F7*8</f>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2044,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="20">
         <f>SUM(F4:F9)</f>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2201,14 +2201,14 @@
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>400</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="33" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1">
         <f>B27*B32/100</f>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="37" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <f>B33/12</f>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.3">
       <c r="H38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I38">
         <f>D51-BG51</f>
@@ -2319,12 +2319,12 @@
         <v>2400</v>
       </c>
       <c r="K38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I39">
         <v>56</v>
@@ -2345,10 +2345,10 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I41" s="36">
         <f>I39*J38/I38</f>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="42" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H42" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I42" s="39">
         <f>I41/24</f>
@@ -2587,187 +2587,187 @@
     </row>
     <row r="49" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="I49" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K49" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M49" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N49" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="O49" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P49" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q49" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="R49" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="S49" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="T49" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U49" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="V49" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W49" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="X49" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y49" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z49" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA49" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB49" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC49" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD49" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="AE49" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="AF49" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG49" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="AH49" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI49" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ49" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I49" s="23" t="s">
+      <c r="AK49" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL49" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM49" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN49" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO49" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP49" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ49" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR49" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS49" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT49" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU49" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV49" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW49" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX49" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY49" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ49" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA49" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB49" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC49" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD49" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE49" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF49" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J49" s="23" t="s">
+      <c r="BG49" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="L49" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M49" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="N49" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="O49" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="P49" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q49" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="R49" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="S49" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="T49" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="U49" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="V49" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="W49" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="X49" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y49" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z49" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA49" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB49" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC49" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD49" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE49" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF49" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG49" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH49" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI49" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ49" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK49" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL49" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM49" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN49" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO49" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP49" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ49" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR49" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS49" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT49" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU49" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV49" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW49" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX49" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY49" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AZ49" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA49" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB49" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC49" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD49" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE49" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="BF49" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG49" s="23" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="27" t="s">
         <v>34</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>35</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="27">
@@ -2996,7 +2996,7 @@
     <row r="51" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31"/>
       <c r="B51" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="26">
